--- a/medicine/Mort/Cimetière_de_Chamalières/Cimetière_de_Chamalières.xlsx
+++ b/medicine/Mort/Cimetière_de_Chamalières/Cimetière_de_Chamalières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chamali%C3%A8res</t>
+          <t>Cimetière_de_Chamalières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Chamalières est le cimetière communal de Chamalières dans le département du Puy-de-Dôme[1]. Il se trouve rue des Farges[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Chamalières est le cimetière communal de Chamalières dans le département du Puy-de-Dôme. Il se trouve rue des Farges.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chamali%C3%A8res</t>
+          <t>Cimetière_de_Chamalières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est divisé entre une partie ancienne et une partie contemporaine par une route. Quelques ifs et conifères y sont plantés. Chamalières étant depuis le milieu du XIXe siècle une banlieue bourgeoise de Clermont-Ferrand, son cimetière reflète une certaine opulence que l'on remarque dans les ornements sculptés des sépultures anciennes, quelques statues (comme la tombe Chaffraix), bas-reliefs et médaillons[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est divisé entre une partie ancienne et une partie contemporaine par une route. Quelques ifs et conifères y sont plantés. Chamalières étant depuis le milieu du XIXe siècle une banlieue bourgeoise de Clermont-Ferrand, son cimetière reflète une certaine opulence que l'on remarque dans les ornements sculptés des sépultures anciennes, quelques statues (comme la tombe Chaffraix), bas-reliefs et médaillons.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chamali%C3%A8res</t>
+          <t>Cimetière_de_Chamalières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mireille Cébeillac-Gervasoni (1942-2017), historienne spécialiste de l'Antiquité romaine
 Charles Charras (1920-2010), dramaturge
